--- a/excel/20180419_ResultsFitting-10gL.xlsx
+++ b/excel/20180419_ResultsFitting-10gL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sjoerd\Documents\MATLAB\drension\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7C2BA-3CD1-496E-8117-FBA2AA5FE7BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311E88E-8225-4C5B-9929-ECE1D070FB50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" xr2:uid="{30DDC550-C6A5-4A71-A357-9322DA02FB5D}"/>
   </bookViews>
@@ -9608,7 +9608,7 @@
   <dimension ref="A1:I536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18243,7 +18243,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
